--- a/examples/静态数据配置表.xlsx
+++ b/examples/静态数据配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_code\open_source\excel_convertor\examples\workbooks\静态库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_code\open_source\excel_convertor\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>php,lua,xml,json,sql</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>物品表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2230,14 +2226,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>lua,xml,json,php</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>json,xml,php,lua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>example</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2255,6 +2243,18 @@
       </rPr>
       <t>_</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>json,xml,php,lua,ini</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua,xml,json,php,ini</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>php,lua,xml,json,sql,ini</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2869,13 +2869,15 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" style="7"/>
-    <col min="2" max="16384" width="22.75" style="8"/>
+    <col min="2" max="5" width="22.75" style="8"/>
+    <col min="6" max="6" width="26.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="22.75" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>1</v>
@@ -2901,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2928,10 +2930,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
@@ -2943,15 +2945,15 @@
         <v>20</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -2963,15 +2965,15 @@
         <v>19</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>11</v>
@@ -3045,60 +3047,60 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>21</v>
@@ -3115,7 +3117,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" outlineLevel="1">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -3140,7 +3142,7 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" outlineLevel="1">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3291,16 +3293,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -3313,34 +3315,34 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="I13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="K13" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3349,19 +3351,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="G14" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="6">
         <v>11</v>
@@ -3382,19 +3384,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="6">
         <v>11</v>
@@ -3415,19 +3417,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="6">
         <v>11</v>
@@ -3448,19 +3450,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6">
         <v>11</v>
@@ -3481,19 +3483,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="6">
         <v>12</v>
@@ -3514,19 +3516,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="6">
         <v>12</v>
@@ -3547,19 +3549,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="6">
         <v>12</v>
@@ -3580,19 +3582,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="6">
         <v>12</v>
@@ -3613,19 +3615,19 @@
         <v>9</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="6">
         <v>13</v>
@@ -3646,19 +3648,19 @@
         <v>10</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H23" s="6">
         <v>13</v>
@@ -3679,19 +3681,19 @@
         <v>11</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="6">
         <v>13</v>
@@ -3712,19 +3714,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H25" s="6">
         <v>13</v>
@@ -3745,19 +3747,19 @@
         <v>13</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="6">
         <v>14</v>
@@ -3777,19 +3779,19 @@
         <v>14</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H27" s="6">
         <v>14</v>
@@ -3809,19 +3811,19 @@
         <v>15</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H28" s="6">
         <v>14</v>
@@ -3841,19 +3843,19 @@
         <v>16</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="6">
         <v>14</v>
@@ -3873,19 +3875,19 @@
         <v>17</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" s="6">
         <v>21</v>
@@ -3905,19 +3907,19 @@
         <v>18</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="6">
         <v>21</v>
@@ -3937,19 +3939,19 @@
         <v>19</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="6">
         <v>21</v>
@@ -3969,19 +3971,19 @@
         <v>20</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" s="6">
         <v>21</v>
@@ -4001,19 +4003,19 @@
         <v>21</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="6">
         <v>22</v>
@@ -4033,19 +4035,19 @@
         <v>22</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H35" s="6">
         <v>22</v>
@@ -4065,19 +4067,19 @@
         <v>23</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H36" s="6">
         <v>22</v>
@@ -4097,19 +4099,19 @@
         <v>24</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="6">
         <v>22</v>
@@ -4129,19 +4131,19 @@
         <v>25</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="6">
         <v>23</v>
@@ -4161,19 +4163,19 @@
         <v>26</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H39" s="6">
         <v>23</v>
@@ -4193,19 +4195,19 @@
         <v>27</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" s="6">
         <v>23</v>
@@ -4225,19 +4227,19 @@
         <v>28</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H41" s="6">
         <v>23</v>
@@ -4257,19 +4259,19 @@
         <v>29</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H42" s="6">
         <v>24</v>
@@ -4289,19 +4291,19 @@
         <v>30</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H43" s="6">
         <v>24</v>
@@ -4321,19 +4323,19 @@
         <v>31</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H44" s="6">
         <v>24</v>
@@ -4353,19 +4355,19 @@
         <v>32</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H45" s="6">
         <v>24</v>
@@ -4431,60 +4433,60 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>21</v>
@@ -4501,7 +4503,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" outlineLevel="1">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
@@ -4526,7 +4528,7 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" outlineLevel="1">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4666,15 +4668,15 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4683,16 +4685,16 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -4705,34 +4707,34 @@
         <v>25</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="I13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="K13" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4741,19 +4743,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="G14" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="6">
         <v>11</v>
@@ -4774,19 +4776,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="6">
         <v>11</v>
@@ -4807,19 +4809,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="6">
         <v>11</v>
@@ -4840,19 +4842,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6">
         <v>11</v>
@@ -4873,19 +4875,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="6">
         <v>12</v>
@@ -4906,19 +4908,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="6">
         <v>12</v>
@@ -4939,19 +4941,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="6">
         <v>12</v>
@@ -4972,19 +4974,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" s="6">
         <v>12</v>
@@ -5005,19 +5007,19 @@
         <v>9</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="6">
         <v>13</v>
@@ -5038,19 +5040,19 @@
         <v>10</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H23" s="6">
         <v>13</v>
@@ -5071,19 +5073,19 @@
         <v>11</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="6">
         <v>13</v>
@@ -5104,19 +5106,19 @@
         <v>12</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H25" s="6">
         <v>13</v>
@@ -5137,19 +5139,19 @@
         <v>13</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="6">
         <v>14</v>
@@ -5169,19 +5171,19 @@
         <v>14</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H27" s="6">
         <v>14</v>
@@ -5201,19 +5203,19 @@
         <v>15</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H28" s="6">
         <v>14</v>
@@ -5233,19 +5235,19 @@
         <v>16</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="6">
         <v>14</v>
@@ -5265,19 +5267,19 @@
         <v>17</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" s="6">
         <v>21</v>
@@ -5297,19 +5299,19 @@
         <v>18</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="6">
         <v>21</v>
@@ -5329,19 +5331,19 @@
         <v>19</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="6">
         <v>21</v>
@@ -5361,19 +5363,19 @@
         <v>20</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" s="6">
         <v>21</v>
@@ -5393,19 +5395,19 @@
         <v>21</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H34" s="6">
         <v>22</v>
@@ -5425,19 +5427,19 @@
         <v>22</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H35" s="6">
         <v>22</v>
@@ -5457,19 +5459,19 @@
         <v>23</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H36" s="6">
         <v>22</v>
@@ -5489,19 +5491,19 @@
         <v>24</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="6">
         <v>22</v>
@@ -5521,19 +5523,19 @@
         <v>25</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="6">
         <v>23</v>
@@ -5553,19 +5555,19 @@
         <v>26</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H39" s="6">
         <v>23</v>
@@ -5585,19 +5587,19 @@
         <v>27</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" s="6">
         <v>23</v>
@@ -5617,19 +5619,19 @@
         <v>28</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H41" s="6">
         <v>23</v>
@@ -5649,19 +5651,19 @@
         <v>29</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H42" s="6">
         <v>24</v>
@@ -5681,19 +5683,19 @@
         <v>30</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H43" s="6">
         <v>24</v>
@@ -5713,19 +5715,19 @@
         <v>31</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H44" s="6">
         <v>24</v>
@@ -5745,19 +5747,19 @@
         <v>32</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H45" s="6">
         <v>24</v>
@@ -5819,42 +5821,42 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -5866,19 +5868,19 @@
         <v>21</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>21</v>
@@ -5889,7 +5891,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" outlineLevel="1">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5914,7 +5916,7 @@
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" outlineLevel="1">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6067,16 +6069,16 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -6087,34 +6089,34 @@
         <v>25</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="J13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="K13" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6129,19 +6131,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>112</v>
-      </c>
       <c r="I14" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J14" s="6">
         <v>99</v>
@@ -6162,19 +6164,19 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J15" s="6">
         <v>99</v>
@@ -6195,19 +6197,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" s="6">
         <v>99</v>
@@ -6228,19 +6230,19 @@
         <v>4</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J17" s="6">
         <v>99</v>
@@ -6261,19 +6263,19 @@
         <v>5</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J18" s="6">
         <v>99</v>
@@ -6294,19 +6296,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J19" s="6">
         <v>99</v>
@@ -6327,19 +6329,19 @@
         <v>7</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="6">
         <v>99</v>
@@ -6360,19 +6362,19 @@
         <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J21" s="6">
         <v>99</v>
@@ -6393,19 +6395,19 @@
         <v>9</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J22" s="6">
         <v>99</v>
@@ -6426,19 +6428,19 @@
         <v>10</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="6">
         <v>99</v>
@@ -6459,19 +6461,19 @@
         <v>11</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J24" s="6">
         <v>99</v>
@@ -6492,19 +6494,19 @@
         <v>12</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J25" s="6">
         <v>99</v>
@@ -6525,19 +6527,19 @@
         <v>13</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J26" s="6">
         <v>99</v>
@@ -6557,19 +6559,19 @@
         <v>14</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J27" s="6">
         <v>99</v>
@@ -6589,19 +6591,19 @@
         <v>15</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J28" s="6">
         <v>99</v>
@@ -6621,19 +6623,19 @@
         <v>16</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J29" s="6">
         <v>99</v>
@@ -6653,19 +6655,19 @@
         <v>17</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J30" s="6">
         <v>99</v>
@@ -6685,19 +6687,19 @@
         <v>18</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J31" s="6">
         <v>99</v>
@@ -6717,19 +6719,19 @@
         <v>19</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J32" s="6">
         <v>99</v>
@@ -6749,19 +6751,19 @@
         <v>20</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J33" s="6">
         <v>99</v>
@@ -6781,19 +6783,19 @@
         <v>21</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J34" s="6">
         <v>99</v>
@@ -6813,19 +6815,19 @@
         <v>22</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J35" s="6">
         <v>99</v>
@@ -6845,19 +6847,19 @@
         <v>23</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J36" s="6">
         <v>99</v>
@@ -6877,19 +6879,19 @@
         <v>24</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J37" s="6">
         <v>99</v>
@@ -6909,19 +6911,19 @@
         <v>25</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J38" s="6">
         <v>99</v>
@@ -6941,19 +6943,19 @@
         <v>26</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J39" s="6">
         <v>99</v>
@@ -6973,19 +6975,19 @@
         <v>27</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J40" s="6">
         <v>99</v>
@@ -7005,19 +7007,19 @@
         <v>28</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J41" s="6">
         <v>99</v>
@@ -7037,19 +7039,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J42" s="6">
         <v>99</v>
@@ -7069,19 +7071,19 @@
         <v>30</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J43" s="6">
         <v>99</v>
@@ -7101,19 +7103,19 @@
         <v>31</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J44" s="6">
         <v>99</v>
@@ -7133,19 +7135,19 @@
         <v>32</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J45" s="6">
         <v>99</v>
